--- a/Assets/DataTable/事件触发表.xlsx
+++ b/Assets/DataTable/事件触发表.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ALL</t>
   </si>
@@ -104,7 +104,10 @@
     <t>触发类型</t>
   </si>
   <si>
-    <t>事件id</t>
+    <t>触发事件id</t>
+  </si>
+  <si>
+    <t>完成事件id</t>
   </si>
   <si>
     <t>数值类型</t>
@@ -336,7 +339,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,16 +692,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,10 +713,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,28 +737,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,19 +767,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,43 +788,49 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +839,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,161 +1166,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="3" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.6" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.6" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15.6" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="15.6" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/DataTable/事件触发表.xlsx
+++ b/Assets/DataTable/事件触发表.xlsx
@@ -95,7 +95,7 @@
     <t>触发ID</t>
   </si>
   <si>
-    <t>文本</t>
+    <t>文本备注</t>
   </si>
   <si>
     <t>备注</t>
@@ -104,7 +104,7 @@
     <t>触发类型</t>
   </si>
   <si>
-    <t>触发事件id</t>
+    <t>产生事件id</t>
   </si>
   <si>
     <t>完成事件id</t>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
